--- a/public/downloads/D&B TEMPLATE.xlsx
+++ b/public/downloads/D&B TEMPLATE.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8235"/>
+    <workbookView windowWidth="20490" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="D&amp;B INDEX" sheetId="29" r:id="rId1"/>
     <sheet name="FrontView" sheetId="32" r:id="rId2"/>
     <sheet name="LHView" sheetId="30" r:id="rId3"/>
     <sheet name="UPView" sheetId="31" r:id="rId4"/>
+    <sheet name="RHView" sheetId="33" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="ACTUATOR" localSheetId="0">#REF!</definedName>
@@ -2132,6 +2133,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15240000" cy="8572500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -2335,7 +2383,7 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J16" sqref="J16:L16"/>
     </sheetView>
   </sheetViews>
@@ -30480,7 +30528,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AE36" sqref="AE36"/>
     </sheetView>
   </sheetViews>
@@ -30524,4 +30572,21 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>